--- a/excel/master-slave.xlsx
+++ b/excel/master-slave.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\xlsx2json\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hehong/Documents/htdocs/xlsx2json/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39ECDE4-B54A-2244-8D4E-FDBCABA266B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13065" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="stages" sheetId="1" r:id="rId1"/>
+    <sheet name="stages#master" sheetId="1" r:id="rId1"/>
     <sheet name="boss@stages" sheetId="5" r:id="rId2"/>
     <sheet name="reward@stages" sheetId="2" r:id="rId3"/>
-    <sheet name="foo" sheetId="8" r:id="rId4"/>
-    <sheet name="bar" sheetId="7" r:id="rId5"/>
-    <sheet name="!readme" sheetId="6" r:id="rId6"/>
+    <sheet name="!readme" sheetId="6" r:id="rId4"/>
+    <sheet name="map" sheetId="7" r:id="rId5"/>
+    <sheet name="customer" sheetId="8" r:id="rId6"/>
+    <sheet name="signin" sheetId="9" r:id="rId7"/>
+    <sheet name="food" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="245">
   <si>
     <t>战役ID</t>
   </si>
@@ -46,6 +49,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>s</t>
@@ -55,6 +59,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>tageNum</t>
@@ -305,95 +310,1132 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
+    <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>#id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>y</t>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>z</t>
+    <t>master</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
+    <t>e1002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>e1003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#master</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_id</t>
+  </si>
+  <si>
+    <t>景点名称</t>
+  </si>
+  <si>
+    <t>是否重点</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>修复需要小游戏</t>
+  </si>
+  <si>
+    <t>map_name</t>
+  </si>
+  <si>
+    <t>map_focus</t>
+  </si>
+  <si>
+    <t>map_brief</t>
+  </si>
+  <si>
+    <t>map_game</t>
+  </si>
+  <si>
+    <t>静安寺</t>
+  </si>
+  <si>
+    <t>修复老照片似乎没有想象的那么困难。</t>
+  </si>
+  <si>
+    <t>上海自然博物馆</t>
+  </si>
+  <si>
+    <t>万物皆是宇宙中的星尘。</t>
+  </si>
+  <si>
+    <t>上海站</t>
+  </si>
+  <si>
+    <t>曾经的车站已成为了博物馆。</t>
+  </si>
+  <si>
+    <t>商务印书馆</t>
+  </si>
+  <si>
+    <t>文明在战火中坚毅前行。</t>
+  </si>
+  <si>
+    <t>马勒别墅</t>
+  </si>
+  <si>
+    <t>一幢不断给人灵感的建筑。</t>
+  </si>
+  <si>
+    <t>中共一大会址</t>
+  </si>
+  <si>
+    <t>这一天，党诞生了。</t>
+  </si>
+  <si>
+    <t>中共二大会址</t>
+  </si>
+  <si>
+    <t>党章于这里诞生。</t>
+  </si>
+  <si>
+    <t>上海毛泽东旧居</t>
+  </si>
+  <si>
+    <t>不忘初显，牢记使命。</t>
+  </si>
+  <si>
+    <t>上海马戏城</t>
+  </si>
+  <si>
+    <t>收获快乐和奇幻的天堂。</t>
+  </si>
+  <si>
+    <t>灵石电竞中心</t>
+  </si>
+  <si>
+    <t>这里是理想的践行地。</t>
+  </si>
+  <si>
+    <t>百乐门</t>
+  </si>
+  <si>
+    <t>东方第一乐府。</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>备注：删掉了30003</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：删掉了30004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：删掉了30005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：删掉了30006</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
       <t>id</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>移动速度</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喜欢食物（逗号分割的id串）</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物描述</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>#id</t>
-    </r>
+      <t>台词</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int[]</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>string[]</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>customer_id</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>customer_name</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>customer_speed</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>customer_food</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>customer_description</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>customer_lines</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>这里有个小天使是你掉的吗？</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯莉</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>本小姐才不会承认你的话。</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"本小姐同意你做我朋友了吗？", "想努力做好一件事，需要理由吗？"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张如卿</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20006,20013</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>她无儿无女，却儿孙满堂。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"生意兴隆呀！","别看这些都是小玩意儿，用处可都大着呢。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周清</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20002,20013</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百年未鸣，一世长留。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"日子过得好了呀。", "国之建设者，皆为战友。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卡米尔</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20016,20006</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>密码，是另一种语言。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"科学使我快乐。", "密码是一种语言。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平念</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20001,20014</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸟鸣之时，念你之刻。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"爱在战火里谱写诗篇。", "当鸟鸣声起，便是我念你之时。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>白令</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20012,20019</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>极司菲尔路的诗人。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"我心中有一团火，路过的人只看到了烟。", "愿这世界不辜负理想主义者。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>安迷修</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>愿漂泊的英魂都得以归家</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"愿漂泊的英魂都得以归家。", "每一次的坚持都有意义。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文静</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20005,20007</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>又被相亲了...</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"真香是人类本质。", "常回家看看。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>王招娣</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20020,20003</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>漂泊异乡，心有归处。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"麻烦给个好评啊！", "祝您用餐愉快！"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高飒</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20004,20011</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>换一种方式与你并肩。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"代码是无法言说的浪漫。", "我想和你并肩作战。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷狮</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有人可以规定万物</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"方寸之间，星辰大海。", "如果一定要有目的地，那便是自由。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方月狄</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20017,20008</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一曲《牡丹亭》，岁月流转过。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"则为你如花美眷，似水流年。", "如果多一张船票…..."</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>林献辉</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20015,20018</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金婚是个日子，过日子要两个人。</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金婚快乐。", "谢谢你陪我走过五十年。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>李舟</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20017,20010</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你还相信童话吗？</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>"你相信童话吗？", "我来给你变个魔术吧。"</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>day_id</t>
+  </si>
+  <si>
+    <t>{}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
+    <t>奖励</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>b</t>
+    <t>reward</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
+    <t>{"60001":10}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,2,3</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,5</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>arr#[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>num</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>{"60001":11}</t>
+  </si>
+  <si>
+    <t>{"60001":12}</t>
+  </si>
+  <si>
+    <t>{"60001":13}</t>
+  </si>
+  <si>
+    <t>{"60001":14}</t>
+  </si>
+  <si>
+    <t>{"60001":15}</t>
+  </si>
+  <si>
+    <t>food_id</t>
+  </si>
+  <si>
+    <t>资源ID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>食物描述</t>
+  </si>
+  <si>
+    <t>喜欢的顾客（逗号分隔的顾客id串）</t>
+  </si>
+  <si>
+    <t>food_src</t>
+  </si>
+  <si>
+    <t>food_name</t>
+  </si>
+  <si>
+    <t>food_desc</t>
+  </si>
+  <si>
+    <t>favorite_customers</t>
+  </si>
+  <si>
+    <t>松鼠鳜鱼</t>
+  </si>
+  <si>
+    <t>色泽金黄甜滋滋~</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>响油鳝丝</t>
+  </si>
+  <si>
+    <t>江南名角儿，响当当的大菜！</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>八宝鸭</t>
+  </si>
+  <si>
+    <t>满汉全席重头菜，一只鸭子七种料！</t>
+  </si>
+  <si>
+    <t>10010</t>
+  </si>
+  <si>
+    <t>八宝辣酱</t>
+  </si>
+  <si>
+    <t>我不是宫保鸡丁哦~</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>糟三样</t>
+  </si>
+  <si>
+    <t>万物皆可糟。</t>
+  </si>
+  <si>
+    <t>10009</t>
+  </si>
+  <si>
+    <t>崇明糕</t>
+  </si>
+  <si>
+    <t>土灶边烤火时总爱巴巴望着的糕点。</t>
+  </si>
+  <si>
+    <t>10003,10005</t>
+  </si>
+  <si>
+    <t>蟹黄汤包</t>
+  </si>
+  <si>
+    <t>晶莹剔透里的浓香小蟹黄。</t>
+  </si>
+  <si>
+    <t>蟹壳黄</t>
+  </si>
+  <si>
+    <t>你吃甜的还是咸的？</t>
+  </si>
+  <si>
+    <t>10013</t>
+  </si>
+  <si>
+    <t>白斩鸡</t>
+  </si>
+  <si>
+    <t>一碟白斩鸡配一碟鸡粥是我们的吃鸡套餐！</t>
+  </si>
+  <si>
+    <t>10012</t>
+  </si>
+  <si>
+    <t>葱油拌面</t>
+  </si>
+  <si>
+    <t>最朴素也最香浓，吸溜一口焦香脆韧！</t>
+  </si>
+  <si>
+    <t>10001,10015</t>
+  </si>
+  <si>
+    <t>生煎包</t>
+  </si>
+  <si>
+    <t>汁浓肉香滋滋焦！</t>
+  </si>
+  <si>
+    <t>上海梨膏糖</t>
+  </si>
+  <si>
+    <t>城隍庙里的古法魔性味道。</t>
+  </si>
+  <si>
+    <t>10007</t>
+  </si>
+  <si>
+    <t>四喜烤麸</t>
+  </si>
+  <si>
+    <t>妈妈今天又做了四喜烤麸！</t>
+  </si>
+  <si>
+    <t>10003,10004</t>
+  </si>
+  <si>
+    <t>排骨年糕</t>
+  </si>
+  <si>
+    <t>“高高兴兴”好口彩呀！</t>
+  </si>
+  <si>
+    <t>豆花粢</t>
+  </si>
+  <si>
+    <t>藏在弄堂保温桶里的味道。</t>
+  </si>
+  <si>
+    <t>10014</t>
+  </si>
+  <si>
+    <t>大白兔奶糖</t>
+  </si>
+  <si>
+    <t>红蓝白的糖纸上写着我们的约定。</t>
+  </si>
+  <si>
+    <t>10002,10005</t>
+  </si>
+  <si>
+    <t>油墩子</t>
+  </si>
+  <si>
+    <t>冬天放学吃一口，暖胃又暖心。</t>
+  </si>
+  <si>
+    <t>10013,10015,10008</t>
+  </si>
+  <si>
+    <t>杏花楼青团</t>
+  </si>
+  <si>
+    <t>清明时节雨纷纷。</t>
+  </si>
+  <si>
+    <t>薄荷糕</t>
+  </si>
+  <si>
+    <t>一口沁凉，一口上头。</t>
+  </si>
+  <si>
+    <t>阿大葱油饼</t>
+  </si>
+  <si>
+    <t>排长队买到的一口酥脆。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +1447,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -416,6 +1459,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -440,6 +1484,77 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFF25A6E"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -644,7 +1759,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,9 +1786,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -784,6 +1896,73 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -878,6 +2057,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -913,6 +2109,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1088,23 +2301,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.1640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,54 +2328,66 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D1" s="58"/>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="D6" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1171,20 +2397,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFB5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:XFB6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16382" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,47 +2418,58 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="4">
         <v>3</v>
       </c>
     </row>
@@ -1243,25 +2480,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="5" customWidth="1"/>
     <col min="3" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="23.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
@@ -1275,35 +2512,35 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1311,13 +2548,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1325,27 +2562,27 @@
         <v>14</v>
       </c>
       <c r="C5" s="5">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="5">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1353,13 +2590,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="5">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1367,27 +2604,27 @@
         <v>14</v>
       </c>
       <c r="C8" s="5">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
         <v>45</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -1395,13 +2632,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -1409,9 +2646,23 @@
         <v>15</v>
       </c>
       <c r="C11" s="5">
+        <v>60</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
         <v>70</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1423,657 +2674,537 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.25" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.875" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
-    <col min="17" max="17" width="8.25" customWidth="1"/>
-    <col min="18" max="18" width="8.125" customWidth="1"/>
+    <col min="14" max="14" width="11.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
+    <col min="17" max="18" width="8.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="1:14">
+      <c r="D1" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="33" t="s">
+    <row r="2" spans="1:14">
+      <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:14" ht="17">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:14" ht="17">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>38</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="2"/>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:14" ht="45">
+      <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:14" ht="45">
+      <c r="A6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:14" ht="45">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D8" s="20" t="s">
+    <row r="8" spans="1:14">
+      <c r="D8" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D9" s="20" t="s">
+    <row r="9" spans="1:14">
+      <c r="D9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="20" t="s">
+    <row r="10" spans="1:14" ht="13.5" customHeight="1">
+      <c r="D10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="37"/>
-      <c r="L10" s="47" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="L10" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D11" s="20" t="s">
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="1:14" ht="17">
+      <c r="D11" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="L11" s="24" t="s">
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="39"/>
+      <c r="L11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="31" t="s">
+      <c r="M11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="32"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D12" s="20" t="s">
+      <c r="N11" s="31"/>
+    </row>
+    <row r="12" spans="1:14" ht="17">
+      <c r="D12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
-      <c r="L12" s="24" t="s">
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="L12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="25" t="s">
+      <c r="M12" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="25" t="s">
+      <c r="N12" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="D13" s="20" t="s">
+    <row r="13" spans="1:14" ht="17">
+      <c r="D13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="J13" s="15" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="39"/>
+      <c r="J13" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="D14" s="20" t="s">
+    <row r="14" spans="1:14" ht="17">
+      <c r="D14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="J14" s="15" t="s">
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="J14" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="D15" s="20" t="s">
+    <row r="15" spans="1:14" ht="17">
+      <c r="D15" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="27">
+      <c r="N15" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D16" s="20" t="s">
+    <row r="16" spans="1:14">
+      <c r="D16" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="15" t="s">
+      <c r="J16" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.15">
-      <c r="D17" s="20" t="s">
+    <row r="17" spans="4:15">
+      <c r="D17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="44" t="s">
+      <c r="G17" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="45"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="15" t="s">
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="4:15" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="D18" s="20" t="s">
+    <row r="18" spans="4:15" ht="17">
+      <c r="D18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="I18" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D19" s="20" t="s">
+    <row r="19" spans="4:15" ht="17">
+      <c r="D19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>28</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="2"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="D20" s="20" t="s">
+    <row r="20" spans="4:15" ht="17">
+      <c r="D20" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>1</v>
       </c>
       <c r="L20" s="5"/>
-      <c r="M20" s="23" t="s">
+      <c r="M20" s="22" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="G21" s="11" t="s">
+    <row r="21" spans="4:15" ht="17">
+      <c r="G21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>2</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="47" t="s">
+      <c r="L21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-    </row>
-    <row r="22" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="G22" s="11" t="s">
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+    </row>
+    <row r="22" spans="4:15" ht="17">
+      <c r="G22" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>3</v>
       </c>
-      <c r="J22" s="15" t="s">
+      <c r="J22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="26" t="s">
+      <c r="L22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="28" t="s">
+      <c r="N22" s="29"/>
+      <c r="O22" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J23" s="15" t="s">
+    <row r="23" spans="4:15" ht="17">
+      <c r="J23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="25" t="s">
+      <c r="M23" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="25" t="s">
+      <c r="N23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="25" t="s">
+      <c r="O23" s="24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J24" s="15" t="s">
+    <row r="24" spans="4:15" ht="17">
+      <c r="J24" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M24" s="25" t="s">
+      <c r="M24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="25">
+      <c r="N24" s="24">
         <v>10</v>
       </c>
-      <c r="O24" s="25">
+      <c r="O24" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J25" s="15" t="s">
+    <row r="25" spans="4:15" ht="17">
+      <c r="J25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="24" t="s">
+      <c r="L25" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="M25" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N25" s="25">
+      <c r="N25" s="24">
         <v>15</v>
       </c>
-      <c r="O25" s="25">
+      <c r="O25" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J26" s="15" t="s">
+    <row r="26" spans="4:15" ht="17">
+      <c r="J26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="25" t="s">
+      <c r="M26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N26" s="25">
+      <c r="N26" s="24">
         <v>20</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="J27" s="15" t="s">
+    <row r="27" spans="4:15" ht="17">
+      <c r="J27" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K27" s="14" t="s">
+      <c r="K27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="25" t="s">
+      <c r="M27" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N27" s="25">
+      <c r="N27" s="24">
         <v>25</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="L28" s="26" t="s">
+    <row r="28" spans="4:15" ht="17">
+      <c r="L28" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="25" t="s">
+      <c r="M28" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N28" s="24">
         <v>35</v>
       </c>
-      <c r="O28" s="25">
+      <c r="O28" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="L29" s="26" t="s">
+    <row r="29" spans="4:15" ht="17">
+      <c r="L29" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="25" t="s">
+      <c r="M29" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N29" s="24">
         <v>45</v>
       </c>
-      <c r="O29" s="25">
+      <c r="O29" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="L30" s="26" t="s">
+    <row r="30" spans="4:15" ht="17">
+      <c r="L30" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="25" t="s">
+      <c r="M30" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N30" s="25">
+      <c r="N30" s="24">
         <v>50</v>
       </c>
-      <c r="O30" s="25">
+      <c r="O30" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="L31" s="26" t="s">
+    <row r="31" spans="4:15" ht="17">
+      <c r="L31" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M31" s="25" t="s">
+      <c r="M31" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N31" s="25">
+      <c r="N31" s="24">
         <v>60</v>
       </c>
-      <c r="O31" s="25">
+      <c r="O31" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="4:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="L32" s="26" t="s">
+    <row r="32" spans="4:15" ht="17">
+      <c r="L32" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M32" s="25" t="s">
+      <c r="M32" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="N32" s="25">
+      <c r="N32" s="24">
         <v>70</v>
       </c>
-      <c r="O32" s="25">
+      <c r="O32" s="24">
         <v>3</v>
       </c>
     </row>
@@ -2090,4 +3221,1175 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04FD462-576A-1440-B21C-6A27BDA9814F}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="54" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="54" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="54" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21">
+      <c r="A1" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21">
+      <c r="A4" s="56">
+        <v>30001</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="56">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="57">
+        <v>11001</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21">
+      <c r="A5" s="56">
+        <v>30002</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="56">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="57">
+        <v>11002</v>
+      </c>
+      <c r="G5" s="53"/>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="56">
+        <v>30003</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="56">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="57">
+        <v>11003</v>
+      </c>
+      <c r="F6" s="52"/>
+    </row>
+    <row r="7" spans="1:7" ht="21">
+      <c r="A7" s="56">
+        <v>30004</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="56">
+        <v>1</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="57">
+        <v>11001</v>
+      </c>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" ht="21">
+      <c r="A8" s="56">
+        <v>30005</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="56">
+        <v>1</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="57">
+        <v>11003</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="A9" s="56">
+        <v>30006</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="56">
+        <v>1</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="57">
+        <v>11003</v>
+      </c>
+      <c r="F9" s="52"/>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="56">
+        <v>30007</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="56">
+        <v>1</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="57">
+        <v>11002</v>
+      </c>
+      <c r="F10" s="52"/>
+    </row>
+    <row r="11" spans="1:7" ht="21">
+      <c r="A11" s="56">
+        <v>30008</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="56">
+        <v>1</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="57">
+        <v>11001</v>
+      </c>
+      <c r="F11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="A12" s="56">
+        <v>30010</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="57">
+        <v>1</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="57">
+        <v>11001</v>
+      </c>
+      <c r="F12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="56">
+        <v>30011</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="57">
+        <v>1</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" s="57">
+        <v>11002</v>
+      </c>
+      <c r="F13" s="52"/>
+    </row>
+    <row r="14" spans="1:7" ht="21">
+      <c r="A14" s="56">
+        <v>30012</v>
+      </c>
+      <c r="B14" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="57">
+        <v>1</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="57">
+        <v>11001</v>
+      </c>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:7" ht="21">
+      <c r="A15" s="56">
+        <v>30013</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="57">
+        <v>0</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="57">
+        <v>11002</v>
+      </c>
+      <c r="F15" s="52"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88238F5-A3BE-5F4D-BEC2-166AC916A172}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16">
+      <c r="A1" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="60">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="60">
+        <v>25</v>
+      </c>
+      <c r="D4" s="60">
+        <v>20010</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="66"/>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="60">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="60">
+        <v>25</v>
+      </c>
+      <c r="D5" s="60">
+        <v>20016</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="60">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="60">
+        <v>10</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="60">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="60">
+        <v>10</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="60">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="60">
+        <v>25</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="60">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="60">
+        <v>20</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="60">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="60">
+        <v>25</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="48"/>
+    </row>
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="60">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="60">
+        <v>40</v>
+      </c>
+      <c r="D11" s="60">
+        <v>20017</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="60">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="60">
+        <v>25</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="60">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="60">
+        <v>25</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="60">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="60">
+        <v>30</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="48"/>
+    </row>
+    <row r="15" spans="1:7" ht="16">
+      <c r="A15" s="60">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="60">
+        <v>20</v>
+      </c>
+      <c r="D15" s="60">
+        <v>20009</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="60">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="60">
+        <v>10</v>
+      </c>
+      <c r="D16" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:7" ht="16">
+      <c r="A17" s="60">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="60">
+        <v>15</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="1:7" ht="16">
+      <c r="A18" s="60">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="60">
+        <v>20</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="48"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B163B4-9DF9-8847-8F0B-3DEC8DB881DD}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="80" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="56">
+        <v>1</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="56">
+        <v>2</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="56">
+        <v>3</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="56">
+        <v>4</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="56">
+        <v>5</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="56">
+        <v>6</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="56">
+        <v>7</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0D92ED-9134-FA4F-8B1E-55E60508EB5A}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="50">
+        <v>20001</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="50">
+        <v>20002</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="50">
+        <v>20003</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="50">
+        <v>20004</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="50">
+        <v>20005</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="50">
+        <v>20006</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="50">
+        <v>20007</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="50">
+        <v>20008</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="50">
+        <v>20009</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="50">
+        <v>20010</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="50">
+        <v>20011</v>
+      </c>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="50">
+        <v>20012</v>
+      </c>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="50">
+        <v>20013</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D16" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="50">
+        <v>20014</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="50">
+        <v>20015</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="50">
+        <v>20016</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" s="69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="50">
+        <v>20017</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="50">
+        <v>20018</v>
+      </c>
+      <c r="B21" s="48"/>
+      <c r="C21" s="49" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>240</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="50">
+        <v>20019</v>
+      </c>
+      <c r="B22" s="48"/>
+      <c r="C22" s="49" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="50">
+        <v>20020</v>
+      </c>
+      <c r="B23" s="48"/>
+      <c r="C23" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D23" s="48" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/master-slave.xlsx
+++ b/excel/master-slave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hehong/Documents/htdocs/xlsx2json/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39ECDE4-B54A-2244-8D4E-FDBCABA266B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810738B6-F66B-DD4C-882D-0F18F7DE6A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20940" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stages#master" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="248">
   <si>
     <t>战役ID</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>战役显示编号</t>
-  </si>
-  <si>
-    <t>id#id</t>
   </si>
   <si>
     <t>name</t>
@@ -112,14 +109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>master#id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>master#id[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>s</t>
     </r>
@@ -186,10 +175,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>boss#{}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>{id:"e1001",lv:1}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -201,23 +186,6 @@
   </si>
   <si>
     <t>reward@stages</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eward#[]</t>
-    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1429,6 +1397,51 @@
   </si>
   <si>
     <t>排长队买到的一口酥脆。</t>
+  </si>
+  <si>
+    <t>#id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eward</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>stages#master</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1759,7 +1772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,6 +1853,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1963,6 +1982,12 @@
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2328,37 +2353,37 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -2367,10 +2392,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
@@ -2379,10 +2404,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -2415,37 +2440,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
@@ -2453,10 +2478,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -2464,10 +2489,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -2500,52 +2525,52 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
         <v>10</v>
@@ -2556,10 +2581,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5">
         <v>15</v>
@@ -2570,10 +2595,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>20</v>
@@ -2584,10 +2609,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>25</v>
@@ -2598,10 +2623,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5">
         <v>35</v>
@@ -2612,10 +2637,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>45</v>
@@ -2626,10 +2651,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="5">
         <v>50</v>
@@ -2640,10 +2665,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5">
         <v>60</v>
@@ -2654,10 +2679,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="5">
         <v>70</v>
@@ -2675,10 +2700,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2699,17 +2724,17 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="D1" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:14" ht="17">
       <c r="A3" s="9" t="s">
@@ -2722,501 +2747,564 @@
         <v>2</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17">
       <c r="A4" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17">
+      <c r="A5" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" ht="45">
-      <c r="A5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="D5" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="45">
       <c r="A6" s="15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="45">
       <c r="A7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="45">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="D8" s="19" t="s">
-        <v>29</v>
+      <c r="D8" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="D9" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="D10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13.5" customHeight="1">
+      <c r="D11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="L11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="13.5" customHeight="1">
-      <c r="D10" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
-      <c r="L10" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-    </row>
-    <row r="11" spans="1:14" ht="17">
-      <c r="D11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="39"/>
-      <c r="L11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" s="31"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14" ht="17">
       <c r="D12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
+        <v>26</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="41"/>
       <c r="L12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="M12" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="33"/>
     </row>
     <row r="13" spans="1:14" ht="17">
-      <c r="D13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="39"/>
-      <c r="J13" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="D13" s="19"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
       <c r="L13" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N13" s="26">
-        <v>1</v>
+        <v>241</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17">
       <c r="D14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="J14" s="14" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
       <c r="L14" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="26">
-        <v>2</v>
+        <v>57</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
       <c r="D15" s="19" t="s">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
       <c r="J15" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L15" s="25" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M15" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N15" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17">
+      <c r="D16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="J16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" ht="17">
+      <c r="D17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="N17" s="26">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
-      <c r="D16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="4:15">
-      <c r="D17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="4:15" ht="17">
+    <row r="18" spans="4:15">
       <c r="D18" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>41</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="4:15" ht="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15">
       <c r="D19" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="4:15" ht="17">
       <c r="D20" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" ht="17">
+      <c r="D21" s="19"/>
+      <c r="G21" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="4:15" ht="17">
+      <c r="D22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="4:15" ht="17">
+      <c r="D23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="4:15" ht="17">
+      <c r="G24" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="9">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="4:15" ht="17">
-      <c r="G21" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I24" s="9">
+        <v>2</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+    </row>
+    <row r="25" spans="4:15" ht="17">
+      <c r="G25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="9">
-        <v>2</v>
-      </c>
-      <c r="J21" s="13" t="s">
+      <c r="H25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="9">
+        <v>3</v>
+      </c>
+      <c r="J25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-    </row>
-    <row r="22" spans="4:15" ht="17">
-      <c r="G22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="9">
-        <v>3</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="25" t="s">
+      <c r="L25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="29"/>
-      <c r="O22" s="27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" ht="17">
-      <c r="J23" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="23" t="s">
+      <c r="M25" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" ht="17">
-      <c r="J24" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L24" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N24" s="24">
-        <v>10</v>
-      </c>
-      <c r="O24" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" ht="17">
-      <c r="J25" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L25" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N25" s="24">
-        <v>15</v>
-      </c>
-      <c r="O25" s="24">
-        <v>2</v>
+      <c r="N25" s="31"/>
+      <c r="O25" s="27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="4:15" ht="17">
-      <c r="J26" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L26" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N26" s="24">
-        <v>20</v>
-      </c>
-      <c r="O26" s="24">
-        <v>3</v>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="14"/>
+      <c r="L26" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="N26" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="4:15" ht="17">
       <c r="J27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L27" s="25" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N27" s="24">
+        <v>11</v>
+      </c>
+      <c r="N27" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" ht="17">
+      <c r="J28" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="24">
+        <v>10</v>
+      </c>
+      <c r="O28" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" ht="17">
+      <c r="J29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" s="24">
+        <v>15</v>
+      </c>
+      <c r="O29" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" ht="17">
+      <c r="J30" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="24">
+        <v>20</v>
+      </c>
+      <c r="O30" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" ht="17">
+      <c r="J31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="24">
         <v>25</v>
       </c>
-      <c r="O27" s="24">
+      <c r="O31" s="24">
         <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="4:15" ht="17">
-      <c r="L28" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N28" s="24">
-        <v>35</v>
-      </c>
-      <c r="O28" s="24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="4:15" ht="17">
-      <c r="L29" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="N29" s="24">
-        <v>45</v>
-      </c>
-      <c r="O29" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="4:15" ht="17">
-      <c r="L30" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N30" s="24">
-        <v>50</v>
-      </c>
-      <c r="O30" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="4:15" ht="17">
-      <c r="L31" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N31" s="24">
-        <v>60</v>
-      </c>
-      <c r="O31" s="24">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="4:15" ht="17">
       <c r="L32" s="25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N32" s="24">
+        <v>35</v>
+      </c>
+      <c r="O32" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" ht="17">
+      <c r="L33" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="24">
+        <v>45</v>
+      </c>
+      <c r="O33" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" ht="17">
+      <c r="L34" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="24">
+        <v>50</v>
+      </c>
+      <c r="O34" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" ht="17">
+      <c r="L35" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N35" s="24">
+        <v>60</v>
+      </c>
+      <c r="O35" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" ht="17">
+      <c r="L36" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" s="24">
         <v>70</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O36" s="24">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M12:N12"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F10:H14"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="F11:H16"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L24:O24"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3233,293 +3321,293 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="54" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="54" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="54" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="54" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="54"/>
+    <col min="1" max="1" width="19.83203125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="56" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="56" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="56" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="56" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="56" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21">
+      <c r="A2" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C3" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D3" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E3" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="F3" s="56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21">
+      <c r="A4" s="58">
+        <v>30001</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="55" t="s">
+      <c r="C4" s="58">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="E4" s="59">
+        <v>11001</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21">
+      <c r="A5" s="58">
+        <v>30002</v>
+      </c>
+      <c r="B5" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="C5" s="58">
+        <v>1</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E5" s="59">
+        <v>11002</v>
+      </c>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="58">
+        <v>30003</v>
+      </c>
+      <c r="B6" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21">
-      <c r="A4" s="56">
-        <v>30001</v>
-      </c>
-      <c r="B4" s="55" t="s">
+      <c r="C6" s="58">
+        <v>1</v>
+      </c>
+      <c r="D6" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="56">
+      <c r="E6" s="59">
+        <v>11003</v>
+      </c>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="21">
+      <c r="A7" s="58">
+        <v>30004</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="58">
         <v>1</v>
       </c>
-      <c r="D4" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="57">
+      <c r="D7" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="59">
         <v>11001</v>
       </c>
-      <c r="F4" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21">
-      <c r="A5" s="56">
-        <v>30002</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="56">
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:7" ht="21">
+      <c r="A8" s="58">
+        <v>30005</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="58">
         <v>1</v>
       </c>
-      <c r="D5" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="57">
+      <c r="D8" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="59">
+        <v>11003</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="A9" s="58">
+        <v>30006</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="58">
+        <v>1</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="59">
+        <v>11003</v>
+      </c>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="58">
+        <v>30007</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="58">
+        <v>1</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="59">
         <v>11002</v>
       </c>
-      <c r="G5" s="53"/>
-    </row>
-    <row r="6" spans="1:7" ht="21">
-      <c r="A6" s="56">
-        <v>30003</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="56">
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:7" ht="21">
+      <c r="A11" s="58">
+        <v>30008</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="58">
         <v>1</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="57">
-        <v>11003</v>
-      </c>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="1:7" ht="21">
-      <c r="A7" s="56">
-        <v>30004</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="56">
+      <c r="D11" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="59">
+        <v>11001</v>
+      </c>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="A12" s="58">
+        <v>30010</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="59">
         <v>1</v>
       </c>
-      <c r="D7" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="57">
+      <c r="D12" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="59">
         <v>11001</v>
       </c>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:7" ht="21">
-      <c r="A8" s="56">
-        <v>30005</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="56">
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="58">
+        <v>30011</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="59">
         <v>1</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="57">
-        <v>11003</v>
-      </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21">
-      <c r="A9" s="56">
-        <v>30006</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="56">
+      <c r="D13" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="59">
+        <v>11002</v>
+      </c>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:7" ht="21">
+      <c r="A14" s="58">
+        <v>30012</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="59">
         <v>1</v>
       </c>
-      <c r="D9" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="57">
-        <v>11003</v>
-      </c>
-      <c r="F9" s="52"/>
-    </row>
-    <row r="10" spans="1:7" ht="21">
-      <c r="A10" s="56">
-        <v>30007</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="56">
-        <v>1</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="57">
+      <c r="D14" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="59">
+        <v>11001</v>
+      </c>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:7" ht="21">
+      <c r="A15" s="58">
+        <v>30013</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="59">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="59">
         <v>11002</v>
       </c>
-      <c r="F10" s="52"/>
-    </row>
-    <row r="11" spans="1:7" ht="21">
-      <c r="A11" s="56">
-        <v>30008</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="56">
-        <v>1</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" s="57">
-        <v>11001</v>
-      </c>
-      <c r="F11" s="52"/>
-    </row>
-    <row r="12" spans="1:7" ht="21">
-      <c r="A12" s="56">
-        <v>30010</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="57">
-        <v>1</v>
-      </c>
-      <c r="D12" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="57">
-        <v>11001</v>
-      </c>
-      <c r="F12" s="52"/>
-    </row>
-    <row r="13" spans="1:7" ht="21">
-      <c r="A13" s="56">
-        <v>30011</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="57">
-        <v>1</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="57">
-        <v>11002</v>
-      </c>
-      <c r="F13" s="52"/>
-    </row>
-    <row r="14" spans="1:7" ht="21">
-      <c r="A14" s="56">
-        <v>30012</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="57">
-        <v>1</v>
-      </c>
-      <c r="D14" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="57">
-        <v>11001</v>
-      </c>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="1:7" ht="21">
-      <c r="A15" s="56">
-        <v>30013</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="57">
-        <v>0</v>
-      </c>
-      <c r="D15" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="57">
-        <v>11002</v>
-      </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3543,380 +3631,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="B2" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="C2" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E2" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="G2" s="50"/>
+    </row>
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="62" t="s">
+      <c r="B3" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="64" t="s">
+      <c r="D3" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="65" t="s">
+      <c r="E3" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="60" t="s">
+      <c r="F3" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="G3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="62">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C4" s="62">
+        <v>25</v>
+      </c>
+      <c r="D4" s="62">
+        <v>20010</v>
+      </c>
+      <c r="E4" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="F4" s="68"/>
+      <c r="G4" s="50"/>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="62">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="62" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="C5" s="62">
+        <v>25</v>
+      </c>
+      <c r="D5" s="62">
+        <v>20016</v>
+      </c>
+      <c r="E5" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F5" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="60">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="G5" s="50"/>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="62">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="60">
+      <c r="C6" s="62">
+        <v>10</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="62">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="62">
+        <v>10</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="62">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="62">
         <v>25</v>
       </c>
-      <c r="D4" s="60">
-        <v>20010</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="48"/>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="60">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="60">
+      <c r="D8" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="50"/>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="62">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="62">
+        <v>20</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="62">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="62">
         <v>25</v>
       </c>
-      <c r="D5" s="60">
-        <v>20016</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="48"/>
-    </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6" s="60">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" s="60">
+      <c r="D10" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="62">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="62">
+        <v>40</v>
+      </c>
+      <c r="D11" s="62">
+        <v>20017</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="62">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="62">
+        <v>25</v>
+      </c>
+      <c r="D12" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="62">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="62">
+        <v>25</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="62">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="62">
+        <v>30</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="1:7" ht="16">
+      <c r="A15" s="62">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="62">
+        <v>20</v>
+      </c>
+      <c r="D15" s="62">
+        <v>20009</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="50"/>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="62">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" s="62">
         <v>10</v>
       </c>
-      <c r="D6" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="60" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="60">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="60">
-        <v>10</v>
-      </c>
-      <c r="D7" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="60">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="60">
-        <v>25</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:7" ht="16">
-      <c r="A9" s="60">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" s="60">
+      <c r="D16" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" s="50"/>
+    </row>
+    <row r="17" spans="1:7" ht="16">
+      <c r="A17" s="62">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="62">
+        <v>15</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="18" spans="1:7" ht="16">
+      <c r="A18" s="62">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="62">
         <v>20</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="60">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="60">
-        <v>25</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>140</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="48"/>
-    </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="60">
-        <v>10008</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="60">
-        <v>40</v>
-      </c>
-      <c r="D11" s="60">
-        <v>20017</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="F11" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="60">
-        <v>10009</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="60">
-        <v>25</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="A13" s="60">
-        <v>10010</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="60">
-        <v>25</v>
-      </c>
-      <c r="D13" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="48"/>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="60">
-        <v>10011</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="60">
-        <v>30</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="E14" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="60">
-        <v>10012</v>
-      </c>
-      <c r="B15" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="C15" s="60">
-        <v>20</v>
-      </c>
-      <c r="D15" s="60">
-        <v>20009</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="60">
-        <v>10013</v>
-      </c>
-      <c r="B16" s="61" t="s">
-        <v>160</v>
-      </c>
-      <c r="C16" s="60">
-        <v>10</v>
-      </c>
-      <c r="D16" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="60">
-        <v>10014</v>
-      </c>
-      <c r="B17" s="61" t="s">
+      <c r="D18" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="60">
-        <v>15</v>
-      </c>
-      <c r="D17" s="60" t="s">
+      <c r="E18" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="F18" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="61" t="s">
-        <v>167</v>
-      </c>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="1:7" ht="16">
-      <c r="A18" s="60">
-        <v>10015</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="60">
-        <v>20</v>
-      </c>
-      <c r="D18" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="E18" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3938,83 +4026,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="58">
+        <v>1</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="58">
+        <v>2</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="58">
+        <v>3</v>
+      </c>
+      <c r="B6" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="51" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="58">
+        <v>4</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="58">
+        <v>5</v>
+      </c>
+      <c r="B8" s="69" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="51" t="s">
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="58">
+        <v>6</v>
+      </c>
+      <c r="B9" s="69" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="56">
-        <v>1</v>
-      </c>
-      <c r="B4" s="67" t="s">
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="58">
+        <v>7</v>
+      </c>
+      <c r="B10" s="69" t="s">
         <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="56">
-        <v>2</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="56">
-        <v>3</v>
-      </c>
-      <c r="B6" s="67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="56">
-        <v>4</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" s="56">
-        <v>5</v>
-      </c>
-      <c r="B8" s="67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="56">
-        <v>6</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="56">
-        <v>7</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -4027,7 +4115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0D92ED-9134-FA4F-8B1E-55E60508EB5A}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4038,354 +4126,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="C3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="D3" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="E3" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="68" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="52">
+        <v>20001</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="D4" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="E4" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="48" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="52">
+        <v>20002</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="D5" s="50" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="50">
-        <v>20001</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="E5" s="71" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="48" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="52">
+        <v>20003</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="D6" s="50" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="50">
-        <v>20002</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49" t="s">
+      <c r="E6" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="48" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="52">
+        <v>20004</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="D7" s="50" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="50">
-        <v>20003</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49" t="s">
+      <c r="E7" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="48" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="52">
+        <v>20005</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="D8" s="50" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="50">
-        <v>20004</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
+      <c r="E8" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="D7" s="48" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="52">
+        <v>20006</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="D9" s="50" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="50">
-        <v>20005</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49" t="s">
+      <c r="E9" s="71" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="48" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="52">
+        <v>20007</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="D10" s="50" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="50">
-        <v>20006</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49" t="s">
+      <c r="E10" s="71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="52">
+        <v>20008</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D11" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E11" s="71" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="50">
-        <v>20007</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49" t="s">
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="52">
+        <v>20009</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D12" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="69" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="50">
-        <v>20008</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49" t="s">
+      <c r="E12" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="48" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="52">
+        <v>20010</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="D13" s="50" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="50">
-        <v>20009</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49" t="s">
+      <c r="E13" s="71" t="s">
         <v>214</v>
       </c>
-      <c r="D12" s="48" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="52">
+        <v>20011</v>
+      </c>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="D14" s="50" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="A13" s="50">
-        <v>20010</v>
-      </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49" t="s">
+      <c r="E14" s="71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="52">
+        <v>20012</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D15" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E15" s="71" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="50">
-        <v>20011</v>
-      </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49" t="s">
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="52">
+        <v>20013</v>
+      </c>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D16" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="69" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="50">
-        <v>20012</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49" t="s">
+      <c r="E16" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="48" t="s">
+    </row>
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="52">
+        <v>20014</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="D17" s="50" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="50">
-        <v>20013</v>
-      </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49" t="s">
+      <c r="E17" s="71" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="52">
+        <v>20015</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D18" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E18" s="71" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16">
-      <c r="A17" s="50">
-        <v>20014</v>
-      </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49" t="s">
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="52">
+        <v>20016</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D19" s="51" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="69" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16">
-      <c r="A18" s="50">
-        <v>20015</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49" t="s">
+      <c r="E19" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="48" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="52">
+        <v>20017</v>
+      </c>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="69" t="s">
+      <c r="D20" s="51" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="16">
-      <c r="A19" s="50">
-        <v>20016</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49" t="s">
+      <c r="E20" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="49" t="s">
+    </row>
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="52">
+        <v>20018</v>
+      </c>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="D21" s="51" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="50">
-        <v>20017</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49" t="s">
+      <c r="E21" s="71" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="52">
+        <v>20019</v>
+      </c>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="D20" s="49" t="s">
+      <c r="D22" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E22" s="71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="52">
+        <v>20020</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16">
-      <c r="A21" s="50">
-        <v>20018</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49" t="s">
+      <c r="D23" s="50" t="s">
         <v>239</v>
       </c>
-      <c r="D21" s="49" t="s">
-        <v>240</v>
-      </c>
-      <c r="E21" s="69" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16">
-      <c r="A22" s="50">
-        <v>20019</v>
-      </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" s="48" t="s">
-        <v>242</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16">
-      <c r="A23" s="50">
-        <v>20020</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="D23" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="E23" s="69" t="s">
-        <v>199</v>
+      <c r="E23" s="71" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/excel/master-slave.xlsx
+++ b/excel/master-slave.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hehong/Documents/htdocs/xlsx2json/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810738B6-F66B-DD4C-882D-0F18F7DE6A32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67D174F-8A66-3749-852F-3DC4DC050E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20940" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stages#master" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="245">
   <si>
     <t>战役ID</t>
   </si>
@@ -405,19 +405,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>备注：删掉了30003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：删掉了30004</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：删掉了30005</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：删掉了30006</t>
+    <t>备注：删掉了30009</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1448,7 +1436,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,6 +1556,14 @@
       <name val="Microsoft YaHei"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1797,9 +1793,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1949,9 +1942,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1988,6 +1978,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2327,10 +2323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17"/>
@@ -2343,7 +2339,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2353,9 +2349,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60"/>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="D1" s="72"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
@@ -2366,7 +2362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>52</v>
       </c>
@@ -2377,8 +2373,9 @@
         <v>4</v>
       </c>
       <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="72"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -2388,9 +2385,8 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2402,7 +2398,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2702,8 +2698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2723,328 +2719,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:14" ht="17">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="17">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17">
+      <c r="A5" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17">
-      <c r="A5" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="2"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="1:14" ht="45">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="45">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="45">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="M10" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.5" customHeight="1">
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
-      <c r="L11" s="48" t="s">
+      <c r="G11" s="36"/>
+      <c r="H11" s="37"/>
+      <c r="L11" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
     </row>
     <row r="12" spans="1:14" ht="17">
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
-      <c r="L12" s="23" t="s">
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="L12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="32" t="s">
+      <c r="M12" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="33"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="1:14" ht="17">
-      <c r="D13" s="19"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="41"/>
-      <c r="L13" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="M13" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>242</v>
+      <c r="D13" s="18"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="L13" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="N13" s="28" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17">
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
-      <c r="L14" s="25" t="s">
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="40"/>
+      <c r="L14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="24" t="s">
+      <c r="M14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N14" s="24" t="s">
+      <c r="N14" s="23" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17">
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-      <c r="J15" s="14" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
+      <c r="J15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="25" t="s">
+      <c r="L15" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17">
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="J16" s="14" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="J16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="25" t="s">
+      <c r="L16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="25">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:15" ht="17">
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L17" s="25" t="s">
+      <c r="L17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="4:15">
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="4:15">
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="14" t="s">
+      <c r="G19" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" s="45"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="4:15" ht="17">
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="4:15" ht="17">
-      <c r="D21" s="19"/>
-      <c r="G21" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J21" s="14"/>
+      <c r="D21" s="18"/>
+      <c r="G21" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="4:15" ht="17">
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="G22" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="I22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="13" t="s">
+      <c r="J22" s="12" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="5"/>
@@ -3052,247 +3048,247 @@
       <c r="N22" s="5"/>
     </row>
     <row r="23" spans="4:15" ht="17">
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="8">
         <v>1</v>
       </c>
       <c r="L23" s="5"/>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="21" t="s">
         <v>43</v>
       </c>
       <c r="N23" s="5"/>
     </row>
     <row r="24" spans="4:15" ht="17">
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="8">
         <v>2</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="48" t="s">
+      <c r="L24" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
     </row>
     <row r="25" spans="4:15" ht="17">
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="8">
         <v>3</v>
       </c>
-      <c r="J25" s="14" t="s">
+      <c r="J25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="25" t="s">
+      <c r="L25" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="M25" s="30" t="s">
+      <c r="M25" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N25" s="31"/>
-      <c r="O25" s="27" t="s">
+      <c r="N25" s="30"/>
+      <c r="O25" s="26" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="4:15" ht="17">
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="14"/>
-      <c r="L26" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="M26" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="N26" s="29" t="s">
-        <v>242</v>
-      </c>
-      <c r="O26" s="27" t="s">
-        <v>242</v>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="13"/>
+      <c r="L26" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="N26" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="4:15" ht="17">
-      <c r="J27" s="14" t="s">
+      <c r="J27" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="25" t="s">
+      <c r="L27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N27" s="24" t="s">
+      <c r="N27" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="O27" s="24" t="s">
+      <c r="O27" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="4:15" ht="17">
-      <c r="J28" s="14" t="s">
+      <c r="J28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M28" s="24" t="s">
+      <c r="M28" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="24">
+      <c r="N28" s="23">
         <v>10</v>
       </c>
-      <c r="O28" s="24">
+      <c r="O28" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="4:15" ht="17">
-      <c r="J29" s="14" t="s">
+      <c r="J29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="24" t="s">
+      <c r="M29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="24">
+      <c r="N29" s="23">
         <v>15</v>
       </c>
-      <c r="O29" s="24">
+      <c r="O29" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="4:15" ht="17">
-      <c r="J30" s="14" t="s">
+      <c r="J30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="23" t="s">
+      <c r="L30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N30" s="24">
+      <c r="N30" s="23">
         <v>20</v>
       </c>
-      <c r="O30" s="24">
+      <c r="O30" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="4:15" ht="17">
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L31" s="25" t="s">
+      <c r="L31" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="24">
+      <c r="N31" s="23">
         <v>25</v>
       </c>
-      <c r="O31" s="24">
+      <c r="O31" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="4:15" ht="17">
-      <c r="L32" s="25" t="s">
+      <c r="L32" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N32" s="24">
+      <c r="N32" s="23">
         <v>35</v>
       </c>
-      <c r="O32" s="24">
+      <c r="O32" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="12:15" ht="17">
-      <c r="L33" s="25" t="s">
+      <c r="L33" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M33" s="24" t="s">
+      <c r="M33" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="24">
+      <c r="N33" s="23">
         <v>45</v>
       </c>
-      <c r="O33" s="24">
+      <c r="O33" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="12:15" ht="17">
-      <c r="L34" s="25" t="s">
+      <c r="L34" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="24" t="s">
+      <c r="M34" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N34" s="24">
+      <c r="N34" s="23">
         <v>50</v>
       </c>
-      <c r="O34" s="24">
+      <c r="O34" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="12:15" ht="17">
-      <c r="L35" s="25" t="s">
+      <c r="L35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="M35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N35" s="24">
+      <c r="N35" s="23">
         <v>60</v>
       </c>
-      <c r="O35" s="24">
+      <c r="O35" s="23">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="12:15" ht="17">
-      <c r="L36" s="25" t="s">
+      <c r="L36" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="24">
+      <c r="N36" s="23">
         <v>70</v>
       </c>
-      <c r="O36" s="24">
+      <c r="O36" s="23">
         <v>3</v>
       </c>
     </row>
@@ -3315,299 +3311,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A04FD462-576A-1440-B21C-6A27BDA9814F}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" style="56" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="56" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="56" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="56" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="56" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="56"/>
+    <col min="1" max="1" width="19.83203125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="55" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="55" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="55" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="55"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="53" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="56" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="21">
+      <c r="A4" s="57">
+        <v>30001</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="57">
+        <v>1</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="58">
+        <v>11001</v>
+      </c>
+      <c r="F4" s="73" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21">
-      <c r="A4" s="58">
-        <v>30001</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="58">
+    <row r="5" spans="1:7" ht="21">
+      <c r="A5" s="57">
+        <v>30002</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="57">
         <v>1</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="59">
+      <c r="D5" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="58">
+        <v>11002</v>
+      </c>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="57">
+        <v>30003</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="57">
+        <v>1</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="58">
+        <v>11003</v>
+      </c>
+      <c r="F6" s="53"/>
+    </row>
+    <row r="7" spans="1:7" ht="21">
+      <c r="A7" s="57">
+        <v>30004</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="57">
+        <v>1</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="58">
         <v>11001</v>
       </c>
-      <c r="F4" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="56" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="21">
-      <c r="A5" s="58">
-        <v>30002</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="58">
+      <c r="F7" s="53"/>
+    </row>
+    <row r="8" spans="1:7" ht="21">
+      <c r="A8" s="57">
+        <v>30005</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="57">
         <v>1</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="59">
+      <c r="D8" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="58">
+        <v>11003</v>
+      </c>
+      <c r="F8" s="53"/>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="A9" s="57">
+        <v>30006</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="57">
+        <v>1</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="58">
+        <v>11003</v>
+      </c>
+      <c r="F9" s="53"/>
+    </row>
+    <row r="10" spans="1:7" ht="21">
+      <c r="A10" s="57">
+        <v>30007</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="58">
         <v>11002</v>
       </c>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="1:7" ht="21">
-      <c r="A6" s="58">
-        <v>30003</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="58">
+      <c r="F10" s="53"/>
+    </row>
+    <row r="11" spans="1:7" ht="21">
+      <c r="A11" s="57">
+        <v>30008</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="57">
         <v>1</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="59">
-        <v>11003</v>
-      </c>
-      <c r="F6" s="54"/>
-    </row>
-    <row r="7" spans="1:7" ht="21">
-      <c r="A7" s="58">
-        <v>30004</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="58">
+      <c r="D11" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="58">
+        <v>11001</v>
+      </c>
+      <c r="F11" s="53"/>
+    </row>
+    <row r="12" spans="1:7" ht="21">
+      <c r="A12" s="57">
+        <v>30010</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="58">
         <v>1</v>
       </c>
-      <c r="D7" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="59">
+      <c r="D12" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="58">
         <v>11001</v>
       </c>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:7" ht="21">
-      <c r="A8" s="58">
-        <v>30005</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="58">
+      <c r="F12" s="53"/>
+    </row>
+    <row r="13" spans="1:7" ht="21">
+      <c r="A13" s="57">
+        <v>30011</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="58">
         <v>1</v>
       </c>
-      <c r="D8" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="59">
-        <v>11003</v>
-      </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="56" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="21">
-      <c r="A9" s="58">
-        <v>30006</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="58">
+      <c r="D13" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="58">
+        <v>11002</v>
+      </c>
+      <c r="F13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="21">
+      <c r="A14" s="57">
+        <v>30012</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="58">
         <v>1</v>
       </c>
-      <c r="D9" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="59">
-        <v>11003</v>
-      </c>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:7" ht="21">
-      <c r="A10" s="58">
-        <v>30007</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="58">
-        <v>1</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="59">
+      <c r="D14" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="58">
+        <v>11001</v>
+      </c>
+      <c r="F14" s="53"/>
+    </row>
+    <row r="15" spans="1:7" ht="21">
+      <c r="A15" s="57">
+        <v>30013</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="58">
+        <v>0</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="58">
         <v>11002</v>
       </c>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="1:7" ht="21">
-      <c r="A11" s="58">
-        <v>30008</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="58">
-        <v>1</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="59">
-        <v>11001</v>
-      </c>
-      <c r="F11" s="54"/>
-    </row>
-    <row r="12" spans="1:7" ht="21">
-      <c r="A12" s="58">
-        <v>30010</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="59">
-        <v>1</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="59">
-        <v>11001</v>
-      </c>
-      <c r="F12" s="54"/>
-    </row>
-    <row r="13" spans="1:7" ht="21">
-      <c r="A13" s="58">
-        <v>30011</v>
-      </c>
-      <c r="B13" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="59">
-        <v>1</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="59">
-        <v>11002</v>
-      </c>
-      <c r="F13" s="54"/>
-    </row>
-    <row r="14" spans="1:7" ht="21">
-      <c r="A14" s="58">
-        <v>30012</v>
-      </c>
-      <c r="B14" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="59">
-        <v>1</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="59">
-        <v>11001</v>
-      </c>
-      <c r="F14" s="54"/>
-    </row>
-    <row r="15" spans="1:7" ht="21">
-      <c r="A15" s="58">
-        <v>30013</v>
-      </c>
-      <c r="B15" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="59">
-        <v>0</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="59">
-        <v>11002</v>
-      </c>
-      <c r="F15" s="54"/>
+      <c r="F15" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3619,8 +3606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88238F5-A3BE-5F4D-BEC2-166AC916A172}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -3631,380 +3618,380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" ht="16">
+      <c r="A2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="C2" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="50"/>
-    </row>
-    <row r="2" spans="1:7" ht="16">
-      <c r="A2" s="64" t="s">
+      <c r="E2" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="65" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="G2" s="49"/>
+    </row>
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="66" t="s">
+      <c r="B3" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="F2" s="67" t="s">
+      <c r="C3" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="50"/>
-    </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="62" t="s">
+      <c r="D3" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="E3" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="F3" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="G3" s="49"/>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="60">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="C4" s="60">
+        <v>25</v>
+      </c>
+      <c r="D4" s="60">
+        <v>20010</v>
+      </c>
+      <c r="E4" s="60" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F4" s="66"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="60">
+        <v>10002</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="50"/>
-    </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="62">
-        <v>10001</v>
-      </c>
-      <c r="B4" s="62" t="s">
+      <c r="C5" s="60">
+        <v>25</v>
+      </c>
+      <c r="D5" s="60">
+        <v>20016</v>
+      </c>
+      <c r="E5" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="62">
+      <c r="F5" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="60">
+        <v>10003</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="60">
+        <v>10</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="49"/>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="60">
+        <v>10004</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="60">
+        <v>10</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="60">
+        <v>10005</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="60">
         <v>25</v>
       </c>
-      <c r="D4" s="62">
-        <v>20010</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="68"/>
-      <c r="G4" s="50"/>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="62">
-        <v>10002</v>
-      </c>
-      <c r="B5" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="62">
+      <c r="D8" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="1:7" ht="16">
+      <c r="A9" s="60">
+        <v>10006</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="60">
+        <v>20</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G9" s="49"/>
+    </row>
+    <row r="10" spans="1:7" ht="16">
+      <c r="A10" s="60">
+        <v>10007</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="60">
         <v>25</v>
       </c>
-      <c r="D5" s="62">
-        <v>20016</v>
-      </c>
-      <c r="E5" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="50"/>
-    </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6" s="62">
-        <v>10003</v>
-      </c>
-      <c r="B6" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="62">
+      <c r="D10" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" ht="16">
+      <c r="A11" s="60">
+        <v>10008</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="60">
+        <v>40</v>
+      </c>
+      <c r="D11" s="60">
+        <v>20017</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="49"/>
+    </row>
+    <row r="12" spans="1:7" ht="16">
+      <c r="A12" s="60">
+        <v>10009</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="60">
+        <v>25</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" ht="16">
+      <c r="A13" s="60">
+        <v>10010</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="60">
+        <v>25</v>
+      </c>
+      <c r="D13" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" ht="16">
+      <c r="A14" s="60">
+        <v>10011</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="60">
+        <v>30</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" ht="16">
+      <c r="A15" s="60">
+        <v>10012</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="60">
+        <v>20</v>
+      </c>
+      <c r="D15" s="60">
+        <v>20009</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="16">
+      <c r="A16" s="60">
+        <v>10013</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="60">
         <v>10</v>
       </c>
-      <c r="D6" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="62">
-        <v>10004</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="62">
-        <v>10</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" s="50"/>
-    </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="62">
-        <v>10005</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C8" s="62">
-        <v>25</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="50"/>
-    </row>
-    <row r="9" spans="1:7" ht="16">
-      <c r="A9" s="62">
-        <v>10006</v>
-      </c>
-      <c r="B9" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="62">
+      <c r="D16" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="1:7" ht="16">
+      <c r="A17" s="60">
+        <v>10014</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="60">
+        <v>15</v>
+      </c>
+      <c r="D17" s="60" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="18" spans="1:7" ht="16">
+      <c r="A18" s="60">
+        <v>10015</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="60">
         <v>20</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" ht="16">
-      <c r="A10" s="62">
-        <v>10007</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="62">
-        <v>25</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="50"/>
-    </row>
-    <row r="11" spans="1:7" ht="16">
-      <c r="A11" s="62">
-        <v>10008</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="62">
-        <v>40</v>
-      </c>
-      <c r="D11" s="62">
-        <v>20017</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>139</v>
-      </c>
-      <c r="G11" s="50"/>
-    </row>
-    <row r="12" spans="1:7" ht="16">
-      <c r="A12" s="62">
-        <v>10009</v>
-      </c>
-      <c r="B12" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="62">
-        <v>25</v>
-      </c>
-      <c r="D12" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>142</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>143</v>
-      </c>
-      <c r="G12" s="50"/>
-    </row>
-    <row r="13" spans="1:7" ht="16">
-      <c r="A13" s="62">
-        <v>10010</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="62">
-        <v>25</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="1:7" ht="16">
-      <c r="A14" s="62">
-        <v>10011</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="62">
-        <v>30</v>
-      </c>
-      <c r="D14" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="G14" s="50"/>
-    </row>
-    <row r="15" spans="1:7" ht="16">
-      <c r="A15" s="62">
-        <v>10012</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="62">
-        <v>20</v>
-      </c>
-      <c r="D15" s="62">
-        <v>20009</v>
-      </c>
-      <c r="E15" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="50"/>
-    </row>
-    <row r="16" spans="1:7" ht="16">
-      <c r="A16" s="62">
-        <v>10013</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="62">
-        <v>10</v>
-      </c>
-      <c r="D16" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="62" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="G16" s="50"/>
-    </row>
-    <row r="17" spans="1:7" ht="16">
-      <c r="A17" s="62">
-        <v>10014</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="62">
-        <v>15</v>
-      </c>
-      <c r="D17" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="62" t="s">
+      <c r="D18" s="60" t="s">
         <v>161</v>
       </c>
-      <c r="F17" s="63" t="s">
+      <c r="E18" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="18" spans="1:7" ht="16">
-      <c r="A18" s="62">
-        <v>10015</v>
-      </c>
-      <c r="B18" s="63" t="s">
+      <c r="F18" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="62">
-        <v>20</v>
-      </c>
-      <c r="D18" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="50"/>
+      <c r="G18" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4026,83 +4013,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="53" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="57">
+        <v>1</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="57">
+        <v>2</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="57">
+        <v>3</v>
+      </c>
+      <c r="B6" s="67" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18">
-      <c r="A2" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="53" t="s">
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="57">
+        <v>4</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="18">
-      <c r="A4" s="58">
-        <v>1</v>
-      </c>
-      <c r="B4" s="69" t="s">
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="57">
+        <v>5</v>
+      </c>
+      <c r="B8" s="67" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="58">
-        <v>2</v>
-      </c>
-      <c r="B5" s="69" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18">
-      <c r="A6" s="58">
-        <v>3</v>
-      </c>
-      <c r="B6" s="69" t="s">
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="57">
+        <v>6</v>
+      </c>
+      <c r="B9" s="67" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18">
-      <c r="A7" s="58">
-        <v>4</v>
-      </c>
-      <c r="B7" s="69" t="s">
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="57">
+        <v>7</v>
+      </c>
+      <c r="B10" s="67" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18">
-      <c r="A8" s="58">
-        <v>5</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18">
-      <c r="A9" s="58">
-        <v>6</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18">
-      <c r="A10" s="58">
-        <v>7</v>
-      </c>
-      <c r="B10" s="69" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -4126,354 +4113,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="E1" s="68" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="49" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="D3" s="49" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="50" t="s">
+      <c r="E3" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="51" t="s">
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="51">
+        <v>20001</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D4" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="61" t="s">
+      <c r="E4" s="69" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="52">
-        <v>20001</v>
-      </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="51">
+        <v>20002</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D5" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E5" s="69" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="52">
-        <v>20002</v>
-      </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51" t="s">
+    <row r="6" spans="1:5" ht="16">
+      <c r="A6" s="51">
+        <v>20003</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D6" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E6" s="69" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16">
-      <c r="A6" s="52">
-        <v>20003</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51" t="s">
+    <row r="7" spans="1:5" ht="16">
+      <c r="A7" s="51">
+        <v>20004</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D7" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E7" s="69" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16">
-      <c r="A7" s="52">
-        <v>20004</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51" t="s">
+    <row r="8" spans="1:5" ht="16">
+      <c r="A8" s="51">
+        <v>20005</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D8" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E8" s="69" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16">
-      <c r="A8" s="52">
-        <v>20005</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51" t="s">
+    <row r="9" spans="1:5" ht="16">
+      <c r="A9" s="51">
+        <v>20006</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D9" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E9" s="69" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="52">
-        <v>20006</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51" t="s">
+    <row r="10" spans="1:5" ht="16">
+      <c r="A10" s="51">
+        <v>20007</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D10" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E10" s="69" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16">
+      <c r="A11" s="51">
+        <v>20008</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="16">
-      <c r="A10" s="52">
-        <v>20007</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51" t="s">
+      <c r="D11" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="E11" s="69" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="71" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16">
-      <c r="A11" s="52">
-        <v>20008</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="16">
+      <c r="A12" s="51">
+        <v>20009</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D12" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E12" s="69" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16">
-      <c r="A12" s="52">
-        <v>20009</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="51" t="s">
+    <row r="13" spans="1:5" ht="16">
+      <c r="A13" s="51">
+        <v>20010</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E13" s="69" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16">
-      <c r="A13" s="52">
-        <v>20010</v>
-      </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="51" t="s">
+    <row r="14" spans="1:5" ht="16">
+      <c r="A14" s="51">
+        <v>20011</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E14" s="69" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16">
+      <c r="A15" s="51">
+        <v>20012</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="16">
-      <c r="A14" s="52">
-        <v>20011</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="51" t="s">
+      <c r="D15" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="E15" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="71" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16">
-      <c r="A15" s="52">
-        <v>20012</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="16">
+      <c r="A16" s="51">
+        <v>20013</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D16" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E16" s="69" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16">
-      <c r="A16" s="52">
-        <v>20013</v>
-      </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="51" t="s">
+    <row r="17" spans="1:5" ht="16">
+      <c r="A17" s="51">
+        <v>20014</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D17" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E17" s="69" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
+      <c r="A18" s="51">
+        <v>20015</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="16">
-      <c r="A17" s="52">
-        <v>20014</v>
-      </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="51" t="s">
+      <c r="D18" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="E18" s="69" t="s">
         <v>224</v>
       </c>
-      <c r="E17" s="71" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="16">
-      <c r="A18" s="52">
-        <v>20015</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="51" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="16">
+      <c r="A19" s="51">
+        <v>20016</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D19" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E19" s="69" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16">
-      <c r="A19" s="52">
-        <v>20016</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51" t="s">
+    <row r="20" spans="1:5" ht="16">
+      <c r="A20" s="51">
+        <v>20017</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50" t="s">
         <v>228</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D20" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E20" s="69" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16">
-      <c r="A20" s="52">
-        <v>20017</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51" t="s">
+    <row r="21" spans="1:5" ht="16">
+      <c r="A21" s="51">
+        <v>20018</v>
+      </c>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D21" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E21" s="69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16">
+      <c r="A22" s="51">
+        <v>20019</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="16">
-      <c r="A21" s="52">
-        <v>20018</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="51" t="s">
+      <c r="D22" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="E22" s="69" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16">
+      <c r="A23" s="51">
+        <v>20020</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="50" t="s">
         <v>235</v>
       </c>
-      <c r="E21" s="71" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="16">
-      <c r="A22" s="52">
-        <v>20019</v>
-      </c>
-      <c r="B22" s="50"/>
-      <c r="C22" s="51" t="s">
+      <c r="D23" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="E22" s="71" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16">
-      <c r="A23" s="52">
-        <v>20020</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="71" t="s">
-        <v>194</v>
+      <c r="E23" s="69" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
